--- a/Partlists.xlsx
+++ b/Partlists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEAFILE\PRIVAT\HOMEMATIC  PROJECTS\My_Homematic_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00368DF8-A68A-4684-A93F-324AFC09F19B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D863E825-564D-45E2-BE5C-18808FBC795F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1110" windowWidth="21600" windowHeight="11370" firstSheet="5" activeTab="10" xr2:uid="{7A505FF2-5F2D-4F83-84D8-4F75DAF65678}"/>
+    <workbookView xWindow="3000" yWindow="1110" windowWidth="21600" windowHeight="11370" firstSheet="5" activeTab="7" xr2:uid="{7A505FF2-5F2D-4F83-84D8-4F75DAF65678}"/>
   </bookViews>
   <sheets>
     <sheet name="HM-SEC-MDIR" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="69">
   <si>
     <t>PartNr</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>https://de.aliexpress.com/item/32959977788.html?spm=a2g0s.9042311.0.0.27424c4dkyqylL</t>
+  </si>
+  <si>
+    <t>R1-R9</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC3B9611-F097-484E-BF7B-F0BBA665E93B}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2073,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB956D42-95F7-4DAF-828D-89F66A335CF3}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,6 +2149,9 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>

--- a/Partlists.xlsx
+++ b/Partlists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEAFILE\PRIVAT\HOMEMATIC  PROJECTS\My_Homematic_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D863E825-564D-45E2-BE5C-18808FBC795F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA52083-5146-40C8-8B33-5D013D80753A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1110" windowWidth="21600" windowHeight="11370" firstSheet="5" activeTab="7" xr2:uid="{7A505FF2-5F2D-4F83-84D8-4F75DAF65678}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
   <si>
     <t>PartNr</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>R1-R9</t>
+  </si>
+  <si>
+    <t>Wannenstecker für AKL 249, 3-pol, RM5,08</t>
+  </si>
+  <si>
+    <t>Wannenstecker für AKL 249, 2-pol, RM5,08</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/wannenstecker-fuer-akl-249-3-pol-rm5-08-akl-230-03-p36702.html?</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/wannenstecker-fuer-akl-249-2-pol-rm5-08-akl-230-02-p36701.html?</t>
+  </si>
+  <si>
+    <t>1 (+4 optional)</t>
   </si>
 </sst>
 </file>
@@ -2077,14 +2092,14 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2206,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2217,10 +2232,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2238,9 +2253,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{42E19D68-DEDD-49F6-AC9B-00B8A0554FF9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2249,15 +2261,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEBC15C-F008-49E5-9EC6-5932565B6C22}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2372,14 +2384,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1</v>
+      <c r="A11" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,10 +2399,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,9 +2420,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{78DC4AB4-22E1-45BF-A6C0-FB3232FE31FE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Partlists.xlsx
+++ b/Partlists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEAFILE\PRIVAT\HOMEMATIC  PROJECTS\My_Homematic_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA52083-5146-40C8-8B33-5D013D80753A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4EB693-C3C9-424A-A0D1-0A0EFC541936}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1110" windowWidth="21600" windowHeight="11370" firstSheet="5" activeTab="7" xr2:uid="{7A505FF2-5F2D-4F83-84D8-4F75DAF65678}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="15300" windowHeight="14940" firstSheet="5" activeTab="8" xr2:uid="{7A505FF2-5F2D-4F83-84D8-4F75DAF65678}"/>
   </bookViews>
   <sheets>
     <sheet name="HM-SEC-MDIR" sheetId="1" r:id="rId1"/>
@@ -2091,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB956D42-95F7-4DAF-828D-89F66A335CF3}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2261,8 +2261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEBC15C-F008-49E5-9EC6-5932565B6C22}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,7 +2294,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2420,6 +2420,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F59A196D-3B66-49D6-B5B5-2E7D2A3FAE9B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Partlists.xlsx
+++ b/Partlists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEAFILE\PRIVAT\HOMEMATIC  PROJECTS\My_Homematic_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4EB693-C3C9-424A-A0D1-0A0EFC541936}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766B581-18F1-4537-98F6-87F56660AA4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="15300" windowHeight="14940" firstSheet="5" activeTab="8" xr2:uid="{7A505FF2-5F2D-4F83-84D8-4F75DAF65678}"/>
   </bookViews>
@@ -2262,7 +2262,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,7 +2305,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2422,6 +2422,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F59A196D-3B66-49D6-B5B5-2E7D2A3FAE9B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{EAE3C504-6390-43E0-A5D1-2509277137D4}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{2908C5F8-894C-4B39-9347-E98503A43BD1}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{677FDE8E-A97D-4872-8531-46C701F75BD2}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{95AE972A-29C6-45D7-96C4-D630BB8C3E71}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{BFF62128-101A-48B0-B444-99D8219DC8A6}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{F7277583-537E-4BF6-BE52-D22D8F55085A}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{39ABC0FA-8807-4229-A592-60EAB60C25BE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Partlists.xlsx
+++ b/Partlists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEAFILE\PRIVAT\HOMEMATIC  PROJECTS\My_Homematic_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766B581-18F1-4537-98F6-87F56660AA4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70960AE0-8750-4E6A-97A6-4EC32B6857F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="15300" windowHeight="14940" firstSheet="5" activeTab="8" xr2:uid="{7A505FF2-5F2D-4F83-84D8-4F75DAF65678}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="75">
   <si>
     <t>PartNr</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>1 (+4 optional)</t>
+  </si>
+  <si>
+    <t>https://de.aliexpress.com/item/32817849786.html?spm=a2g0o.productlist.0.0.260073beDSkClD&amp;algo_pvid=51b52a6f-dc94-4152-9721-98bffea40076&amp;algo_expid=51b52a6f-dc94-4152-9721-98bffea40076-1&amp;btsid=c94e558f-368d-470b-a49c-61c69230d3d9&amp;ws_ab_test=searchweb0_0,searchweb201602_2,searchweb201603_52</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2265,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,7 +2372,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2426,7 +2429,7 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{2908C5F8-894C-4B39-9347-E98503A43BD1}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{677FDE8E-A97D-4872-8531-46C701F75BD2}"/>
     <hyperlink ref="D7" r:id="rId5" xr:uid="{95AE972A-29C6-45D7-96C4-D630BB8C3E71}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{BFF62128-101A-48B0-B444-99D8219DC8A6}"/>
+    <hyperlink ref="D9" r:id="rId6" display="https://de.aliexpress.com/item/32817849786.html?spm=a2g0o.productlist.0.0.260073beDSkClD&amp;algo_pvid=51b52a6f-dc94-4152-9721-98bffea40076&amp;algo_expid=51b52a6f-dc94-4152-9721-98bffea40076-1&amp;btsid=c94e558f-368d-470b-a49c-61c69230d3d9&amp;ws_ab_test=searchweb0_0,searchweb201602_2,searchweb201603_52" xr:uid="{BFF62128-101A-48B0-B444-99D8219DC8A6}"/>
     <hyperlink ref="D11" r:id="rId7" xr:uid="{F7277583-537E-4BF6-BE52-D22D8F55085A}"/>
     <hyperlink ref="D12" r:id="rId8" xr:uid="{39ABC0FA-8807-4229-A592-60EAB60C25BE}"/>
   </hyperlinks>

--- a/Partlists.xlsx
+++ b/Partlists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEAFILE\PRIVAT\HOMEMATIC  PROJECTS\My_Homematic_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70960AE0-8750-4E6A-97A6-4EC32B6857F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3452E302-DED0-4621-9234-3B15A00F30EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="15300" windowHeight="14940" firstSheet="5" activeTab="8" xr2:uid="{7A505FF2-5F2D-4F83-84D8-4F75DAF65678}"/>
   </bookViews>
@@ -2264,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEBC15C-F008-49E5-9EC6-5932565B6C22}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2360,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2432,6 +2432,9 @@
     <hyperlink ref="D9" r:id="rId6" display="https://de.aliexpress.com/item/32817849786.html?spm=a2g0o.productlist.0.0.260073beDSkClD&amp;algo_pvid=51b52a6f-dc94-4152-9721-98bffea40076&amp;algo_expid=51b52a6f-dc94-4152-9721-98bffea40076-1&amp;btsid=c94e558f-368d-470b-a49c-61c69230d3d9&amp;ws_ab_test=searchweb0_0,searchweb201602_2,searchweb201603_52" xr:uid="{BFF62128-101A-48B0-B444-99D8219DC8A6}"/>
     <hyperlink ref="D11" r:id="rId7" xr:uid="{F7277583-537E-4BF6-BE52-D22D8F55085A}"/>
     <hyperlink ref="D12" r:id="rId8" xr:uid="{39ABC0FA-8807-4229-A592-60EAB60C25BE}"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://de.aliexpress.com/item/32695798177.html?spm=a2g0o.productlist.0.0.46db7659cuB4fB&amp;algo_pvid=f16bd12e-440a-4511-8da8-a5307d08bf2e&amp;algo_expid=f16bd12e-440a-4511-8da8-a5307d08bf2e-0&amp;btsid=a537a142-d787-4dc3-9340-8575fe28f2bd&amp;ws_ab_test=searchweb0_0,searchweb201602_2,searchweb201603_52" xr:uid="{E35BF1E5-F46B-49D2-9CDF-AD6BE6F799DE}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{41B4FF9E-01FF-4698-8211-96A31784EE88}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{E2197209-0177-45BC-9BC1-9E100B67FF27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Partlists.xlsx
+++ b/Partlists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SEAFILE\PRIVAT\HOMEMATIC  PROJECTS\My_Homematic_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3452E302-DED0-4621-9234-3B15A00F30EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62CD4F9-260D-4DE5-B658-DD93F6D02B6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="0" windowWidth="15300" windowHeight="14940" firstSheet="5" activeTab="8" xr2:uid="{7A505FF2-5F2D-4F83-84D8-4F75DAF65678}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="76">
   <si>
     <t>PartNr</t>
   </si>
@@ -261,10 +261,13 @@
     <t>https://www.reichelt.de/wannenstecker-fuer-akl-249-2-pol-rm5-08-akl-230-02-p36701.html?</t>
   </si>
   <si>
-    <t>1 (+4 optional)</t>
-  </si>
-  <si>
     <t>https://de.aliexpress.com/item/32817849786.html?spm=a2g0o.productlist.0.0.260073beDSkClD&amp;algo_pvid=51b52a6f-dc94-4152-9721-98bffea40076&amp;algo_expid=51b52a6f-dc94-4152-9721-98bffea40076-1&amp;btsid=c94e558f-368d-470b-a49c-61c69230d3d9&amp;ws_ab_test=searchweb0_0,searchweb201602_2,searchweb201603_52</t>
+  </si>
+  <si>
+    <t>https://de.aliexpress.com/item/32881616806.html?spm=a2g0o.productlist.0.0.27805012dPDPf4&amp;algo_pvid=2ce275e5-5ca6-4441-a1e3-fb3df6923537&amp;algo_expid=2ce275e5-5ca6-4441-a1e3-fb3df6923537-0&amp;btsid=14cad76a-3ab1-4af8-af47-443eb0bf5dae&amp;ws_ab_test=searchweb0_0,searchweb201602_2,searchweb201603_52</t>
+  </si>
+  <si>
+    <t>ULN2803A</t>
   </si>
 </sst>
 </file>
@@ -2264,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEEBC15C-F008-49E5-9EC6-5932565B6C22}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2317,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2325,7 +2328,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2336,7 +2339,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2372,7 +2375,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,8 +2390,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>73</v>
+      <c r="A11" s="4">
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -2406,6 +2409,17 @@
       </c>
       <c r="D12" s="5" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
